--- a/data/chiropractic_care_raw.xlsx
+++ b/data/chiropractic_care_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26936018-6AD7-4A14-976D-A5F1A83E6BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A78B915-6169-4288-9050-F7F54749F8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24420" yWindow="-3000" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23910" yWindow="-2490" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Preventative</t>
+    <t>Prevention</t>
   </si>
 </sst>
 </file>
@@ -450,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B137" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
